--- a/N_Starvation/HOT1A3_medium_NCBI.xlsx
+++ b/N_Starvation/HOT1A3_medium_NCBI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="737">
   <si>
     <t>reaction</t>
   </si>
@@ -43,9 +43,18 @@
     <t>promm</t>
   </si>
   <si>
+    <t>EX_12ppd__R_e</t>
+  </si>
+  <si>
+    <t>EX_12ppd__S_e</t>
+  </si>
+  <si>
     <t>EX_14glucan_e</t>
   </si>
   <si>
+    <t>EX_15dap_e</t>
+  </si>
+  <si>
     <t>EX_25dkglcn_e</t>
   </si>
   <si>
@@ -55,9 +64,6 @@
     <t>EX_2m35mdntha_e</t>
   </si>
   <si>
-    <t>EX_2pglyc_e</t>
-  </si>
-  <si>
     <t>EX_35dnta_e</t>
   </si>
   <si>
@@ -76,18 +82,12 @@
     <t>EX_4hbz_e</t>
   </si>
   <si>
-    <t>EX_4hphac_e</t>
-  </si>
-  <si>
     <t>EX_5dglcn_e</t>
   </si>
   <si>
     <t>EX_5drib_e</t>
   </si>
   <si>
-    <t>EX_5mdru1p_e</t>
-  </si>
-  <si>
     <t>EX_6atha_e</t>
   </si>
   <si>
@@ -112,9 +112,6 @@
     <t>EX_acgam_e</t>
   </si>
   <si>
-    <t>EX_acmana_e</t>
-  </si>
-  <si>
     <t>EX_actn__R_e</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>EX_arg__L_e</t>
   </si>
   <si>
-    <t>EX_ascb__L_e</t>
-  </si>
-  <si>
     <t>EX_asn__L_e</t>
   </si>
   <si>
@@ -208,6 +202,9 @@
     <t>EX_ca2_e</t>
   </si>
   <si>
+    <t>EX_cell4_e</t>
+  </si>
+  <si>
     <t>EX_cellb_e</t>
   </si>
   <si>
@@ -217,12 +214,6 @@
     <t>EX_chol_e</t>
   </si>
   <si>
-    <t>EX_chols_e</t>
-  </si>
-  <si>
-    <t>EX_chtbs_e</t>
-  </si>
-  <si>
     <t>EX_cinnm_e</t>
   </si>
   <si>
@@ -253,9 +244,6 @@
     <t>EX_cyan_e</t>
   </si>
   <si>
-    <t>EX_cynt_e</t>
-  </si>
-  <si>
     <t>EX_cys__L_e</t>
   </si>
   <si>
@@ -316,12 +304,6 @@
     <t>EX_feenter_e</t>
   </si>
   <si>
-    <t>EX_feoxam_e</t>
-  </si>
-  <si>
-    <t>EX_feoxam_un_e</t>
-  </si>
-  <si>
     <t>EX_for_e</t>
   </si>
   <si>
@@ -331,27 +313,21 @@
     <t>EX_fuc__L_e</t>
   </si>
   <si>
+    <t>EX_fuc_e</t>
+  </si>
+  <si>
     <t>EX_fum_e</t>
   </si>
   <si>
     <t>EX_g3pc_e</t>
   </si>
   <si>
-    <t>EX_g3pe_e</t>
-  </si>
-  <si>
-    <t>EX_g3pg_e</t>
-  </si>
-  <si>
     <t>EX_g3pi_e</t>
   </si>
   <si>
     <t>EX_g3ps_e</t>
   </si>
   <si>
-    <t>EX_gal_bD_e</t>
-  </si>
-  <si>
     <t>EX_gal_e</t>
   </si>
   <si>
@@ -409,15 +385,12 @@
     <t>EX_gly_tyr_e</t>
   </si>
   <si>
+    <t>EX_glyald_e</t>
+  </si>
+  <si>
     <t>EX_glyb_e</t>
   </si>
   <si>
-    <t>EX_glyc2p_e</t>
-  </si>
-  <si>
-    <t>EX_glyc3p_e</t>
-  </si>
-  <si>
     <t>EX_glyc_e</t>
   </si>
   <si>
@@ -445,6 +418,9 @@
     <t>EX_glyser_e</t>
   </si>
   <si>
+    <t>EX_gsn_e</t>
+  </si>
+  <si>
     <t>EX_gthrd_e</t>
   </si>
   <si>
@@ -466,18 +442,12 @@
     <t>EX_h_e</t>
   </si>
   <si>
-    <t>EX_hco3_e</t>
-  </si>
-  <si>
     <t>EX_hdca_e</t>
   </si>
   <si>
     <t>EX_hdcea_e</t>
   </si>
   <si>
-    <t>EX_his__L_e</t>
-  </si>
-  <si>
     <t>EX_hisgly_e</t>
   </si>
   <si>
@@ -499,9 +469,6 @@
     <t>EX_ibt_e</t>
   </si>
   <si>
-    <t>EX_idon__L_e</t>
-  </si>
-  <si>
     <t>EX_ile__L_e</t>
   </si>
   <si>
@@ -553,12 +520,6 @@
     <t>EX_mal__L_e</t>
   </si>
   <si>
-    <t>EX_malt_e</t>
-  </si>
-  <si>
-    <t>EX_maltpt_e</t>
-  </si>
-  <si>
     <t>EX_man_e</t>
   </si>
   <si>
@@ -583,6 +544,9 @@
     <t>EX_mn2_e</t>
   </si>
   <si>
+    <t>EX_mnl1p_e</t>
+  </si>
+  <si>
     <t>EX_mnl_e</t>
   </si>
   <si>
@@ -595,9 +559,6 @@
     <t>EX_nh4_e</t>
   </si>
   <si>
-    <t>EX_nmn_e</t>
-  </si>
-  <si>
     <t>EX_no2_e</t>
   </si>
   <si>
@@ -619,24 +580,15 @@
     <t>EX_octa_e</t>
   </si>
   <si>
-    <t>EX_orn_e</t>
-  </si>
-  <si>
     <t>EX_oxa_e</t>
   </si>
   <si>
     <t>EX_p_xyl_e</t>
   </si>
   <si>
-    <t>EX_pacald_e</t>
-  </si>
-  <si>
     <t>EX_pea_e</t>
   </si>
   <si>
-    <t>EX_peamn_e</t>
-  </si>
-  <si>
     <t>EX_phedca_e</t>
   </si>
   <si>
@@ -718,9 +670,6 @@
     <t>EX_sel_e</t>
   </si>
   <si>
-    <t>EX_ser__L_e</t>
-  </si>
-  <si>
     <t>EX_serglugly_e</t>
   </si>
   <si>
@@ -754,9 +703,6 @@
     <t>EX_tcynt_e</t>
   </si>
   <si>
-    <t>EX_thm_e</t>
-  </si>
-  <si>
     <t>EX_thym_e</t>
   </si>
   <si>
@@ -799,9 +745,6 @@
     <t>EX_val__L_e</t>
   </si>
   <si>
-    <t>EX_vanlt_e</t>
-  </si>
-  <si>
     <t>EX_xan_e</t>
   </si>
   <si>
@@ -814,9 +757,18 @@
     <t>EX_zn2_e</t>
   </si>
   <si>
+    <t>(R)-Propane-1,2-diol</t>
+  </si>
+  <si>
+    <t>(S)-Propane-1,2-diol</t>
+  </si>
+  <si>
     <t>1,4-alpha-D-glucan</t>
   </si>
   <si>
+    <t>1,5-Diaminopentane</t>
+  </si>
+  <si>
     <t>2,5-diketo-D-gluconate</t>
   </si>
   <si>
@@ -826,9 +778,6 @@
     <t>N  2 methyl 3 5 dinitrophenyl  4 methyl 3 5 dinitroaniline</t>
   </si>
   <si>
-    <t>2-Phosphoglycolate</t>
-  </si>
-  <si>
     <t>N N bis 3 5 dinitrotolyl  amine</t>
   </si>
   <si>
@@ -847,18 +796,12 @@
     <t>4-Hydroxybenzoate</t>
   </si>
   <si>
-    <t>4-Hydroxyphenylacetate</t>
-  </si>
-  <si>
     <t>5-Dehydro-D-gluconate</t>
   </si>
   <si>
     <t>5'-deoxyribose</t>
   </si>
   <si>
-    <t>5-Methylthio-5-deoxy-D-ribulose 1-phosphate</t>
-  </si>
-  <si>
     <t>6 acetylthiohexanoic acid</t>
   </si>
   <si>
@@ -883,9 +826,6 @@
     <t>N-Acetyl-D-glucosamine</t>
   </si>
   <si>
-    <t>N-Acetyl-D-mannosamine</t>
-  </si>
-  <si>
     <t xml:space="preserve"> R  Acetoin C4H8O2</t>
   </si>
   <si>
@@ -949,9 +889,6 @@
     <t>L-Arginine</t>
   </si>
   <si>
-    <t>L-Ascorbate</t>
-  </si>
-  <si>
     <t>L-Asparagine</t>
   </si>
   <si>
@@ -979,6 +916,9 @@
     <t>Calcium</t>
   </si>
   <si>
+    <t>Cellulose (n=4 repeating units)</t>
+  </si>
+  <si>
     <t>Cellobiose</t>
   </si>
   <si>
@@ -988,12 +928,6 @@
     <t>Choline C5H14NO</t>
   </si>
   <si>
-    <t>Choline sulfate</t>
-  </si>
-  <si>
-    <t>N,N'-diacetylchitobiose</t>
-  </si>
-  <si>
     <t>Trans-Cinnamate</t>
   </si>
   <si>
@@ -1024,9 +958,6 @@
     <t>Hydrogen cyanide</t>
   </si>
   <si>
-    <t>Cyanate</t>
-  </si>
-  <si>
     <t>L-Cysteine</t>
   </si>
   <si>
@@ -1087,12 +1018,6 @@
     <t>Fe-enterobactin</t>
   </si>
   <si>
-    <t>Generic ferrioxamine-Fe-III</t>
-  </si>
-  <si>
-    <t>Ferroxamine minus Fe(3)</t>
-  </si>
-  <si>
     <t>Formate</t>
   </si>
   <si>
@@ -1102,27 +1027,21 @@
     <t>L-Fucose</t>
   </si>
   <si>
+    <t>L-fuculose</t>
+  </si>
+  <si>
     <t>Fumarate</t>
   </si>
   <si>
     <t>Sn-Glycero-3-phosphocholine</t>
   </si>
   <si>
-    <t>Sn-Glycero-3-phosphoethanolamine</t>
-  </si>
-  <si>
-    <t>Glycerophosphoglycerol</t>
-  </si>
-  <si>
     <t>Sn-Glycero-3-phospho-1-inositol</t>
   </si>
   <si>
     <t>Glycerophosphoserine</t>
   </si>
   <si>
-    <t>Beta D-Galactose</t>
-  </si>
-  <si>
     <t>D-Galactose</t>
   </si>
   <si>
@@ -1180,15 +1099,12 @@
     <t>Gly-Tyr</t>
   </si>
   <si>
+    <t>D-Glyceraldehyde</t>
+  </si>
+  <si>
     <t>Glycine betaine</t>
   </si>
   <si>
-    <t>Glycerol 2-phosphate</t>
-  </si>
-  <si>
-    <t>Glycerol 3-phosphate</t>
-  </si>
-  <si>
     <t>Glycerol</t>
   </si>
   <si>
@@ -1216,6 +1132,9 @@
     <t>L glycinylserine</t>
   </si>
   <si>
+    <t>Guanosine</t>
+  </si>
+  <si>
     <t>Reduced glutathione</t>
   </si>
   <si>
@@ -1237,18 +1156,12 @@
     <t>H+</t>
   </si>
   <si>
-    <t>Bicarbonate</t>
-  </si>
-  <si>
     <t>Hexadecanoate (n-C16:0)</t>
   </si>
   <si>
     <t>Hexadecenoate (n-C16:1)</t>
   </si>
   <si>
-    <t>L-Histidine</t>
-  </si>
-  <si>
     <t>L histidinylglycine</t>
   </si>
   <si>
@@ -1270,9 +1183,6 @@
     <t>Isobutyrate</t>
   </si>
   <si>
-    <t>L-Idonate</t>
-  </si>
-  <si>
     <t>L-Isoleucine</t>
   </si>
   <si>
@@ -1324,12 +1234,6 @@
     <t>L-Malate</t>
   </si>
   <si>
-    <t>Maltose C12H22O11</t>
-  </si>
-  <si>
-    <t>Maltopentaose</t>
-  </si>
-  <si>
     <t>D-Mannose</t>
   </si>
   <si>
@@ -1354,6 +1258,9 @@
     <t>Manganese</t>
   </si>
   <si>
+    <t>D-Mannitol 1-phosphate</t>
+  </si>
+  <si>
     <t>D-Mannitol</t>
   </si>
   <si>
@@ -1366,9 +1273,6 @@
     <t>Ammonium</t>
   </si>
   <si>
-    <t>NMN C11H14N2O8P</t>
-  </si>
-  <si>
     <t>Nitrite</t>
   </si>
   <si>
@@ -1390,24 +1294,15 @@
     <t>Octanoate (n-C8:0)</t>
   </si>
   <si>
-    <t>Ornithine</t>
-  </si>
-  <si>
     <t>Oxalate</t>
   </si>
   <si>
     <t>P-methyltoluene</t>
   </si>
   <si>
-    <t>Phenylacetaldehyde</t>
-  </si>
-  <si>
     <t>Phenylethyl alcohol</t>
   </si>
   <si>
-    <t>Phenethylamine</t>
-  </si>
-  <si>
     <t>10 Phenyldecanoic acid</t>
   </si>
   <si>
@@ -1489,9 +1384,6 @@
     <t>Selenate</t>
   </si>
   <si>
-    <t>L-Serine</t>
-  </si>
-  <si>
     <t>Serine-glutamine-glycine tripeptide</t>
   </si>
   <si>
@@ -1525,9 +1417,6 @@
     <t>Thiocyanate</t>
   </si>
   <si>
-    <t>Thiamin</t>
-  </si>
-  <si>
     <t>Thymine C5H6N2O2</t>
   </si>
   <si>
@@ -1570,9 +1459,6 @@
     <t>L-Valine</t>
   </si>
   <si>
-    <t>Vanillate</t>
-  </si>
-  <si>
     <t>Xanthine</t>
   </si>
   <si>
@@ -1585,9 +1471,18 @@
     <t>Zinc</t>
   </si>
   <si>
+    <t>12ppd__R_e</t>
+  </si>
+  <si>
+    <t>12ppd__S_e</t>
+  </si>
+  <si>
     <t>14glucan_e</t>
   </si>
   <si>
+    <t>15dap_e</t>
+  </si>
+  <si>
     <t>25dkglcn_e</t>
   </si>
   <si>
@@ -1597,9 +1492,6 @@
     <t>2m35mdntha_e</t>
   </si>
   <si>
-    <t>2pglyc_e</t>
-  </si>
-  <si>
     <t>35dnta_e</t>
   </si>
   <si>
@@ -1618,18 +1510,12 @@
     <t>4hbz_e</t>
   </si>
   <si>
-    <t>4hphac_e</t>
-  </si>
-  <si>
     <t>5dglcn_e</t>
   </si>
   <si>
     <t>5drib_e</t>
   </si>
   <si>
-    <t>5mdru1p_e</t>
-  </si>
-  <si>
     <t>6atha_e</t>
   </si>
   <si>
@@ -1654,9 +1540,6 @@
     <t>acgam_e</t>
   </si>
   <si>
-    <t>acmana_e</t>
-  </si>
-  <si>
     <t>actn__R_e</t>
   </si>
   <si>
@@ -1720,9 +1603,6 @@
     <t>arg__L_e</t>
   </si>
   <si>
-    <t>ascb__L_e</t>
-  </si>
-  <si>
     <t>asn__L_e</t>
   </si>
   <si>
@@ -1750,6 +1630,9 @@
     <t>ca2_e</t>
   </si>
   <si>
+    <t>cell4_e</t>
+  </si>
+  <si>
     <t>cellb_e</t>
   </si>
   <si>
@@ -1759,12 +1642,6 @@
     <t>chol_e</t>
   </si>
   <si>
-    <t>chols_e</t>
-  </si>
-  <si>
-    <t>chtbs_e</t>
-  </si>
-  <si>
     <t>cinnm_e</t>
   </si>
   <si>
@@ -1795,9 +1672,6 @@
     <t>cyan_e</t>
   </si>
   <si>
-    <t>cynt_e</t>
-  </si>
-  <si>
     <t>cys__L_e</t>
   </si>
   <si>
@@ -1858,12 +1732,6 @@
     <t>feenter_e</t>
   </si>
   <si>
-    <t>feoxam_e</t>
-  </si>
-  <si>
-    <t>feoxam_un_e</t>
-  </si>
-  <si>
     <t>for_e</t>
   </si>
   <si>
@@ -1873,27 +1741,21 @@
     <t>fuc__L_e</t>
   </si>
   <si>
+    <t>fuc_e</t>
+  </si>
+  <si>
     <t>fum_e</t>
   </si>
   <si>
     <t>g3pc_e</t>
   </si>
   <si>
-    <t>g3pe_e</t>
-  </si>
-  <si>
-    <t>g3pg_e</t>
-  </si>
-  <si>
     <t>g3pi_e</t>
   </si>
   <si>
     <t>g3ps_e</t>
   </si>
   <si>
-    <t>gal_bD_e</t>
-  </si>
-  <si>
     <t>gal_e</t>
   </si>
   <si>
@@ -1951,15 +1813,12 @@
     <t>gly_tyr_e</t>
   </si>
   <si>
+    <t>glyald_e</t>
+  </si>
+  <si>
     <t>glyb_e</t>
   </si>
   <si>
-    <t>glyc2p_e</t>
-  </si>
-  <si>
-    <t>glyc3p_e</t>
-  </si>
-  <si>
     <t>glyc_e</t>
   </si>
   <si>
@@ -1987,6 +1846,9 @@
     <t>glyser_e</t>
   </si>
   <si>
+    <t>gsn_e</t>
+  </si>
+  <si>
     <t>gthrd_e</t>
   </si>
   <si>
@@ -2008,18 +1870,12 @@
     <t>h_e</t>
   </si>
   <si>
-    <t>hco3_e</t>
-  </si>
-  <si>
     <t>hdca_e</t>
   </si>
   <si>
     <t>hdcea_e</t>
   </si>
   <si>
-    <t>his__L_e</t>
-  </si>
-  <si>
     <t>hisgly_e</t>
   </si>
   <si>
@@ -2041,9 +1897,6 @@
     <t>ibt_e</t>
   </si>
   <si>
-    <t>idon__L_e</t>
-  </si>
-  <si>
     <t>ile__L_e</t>
   </si>
   <si>
@@ -2095,12 +1948,6 @@
     <t>mal__L_e</t>
   </si>
   <si>
-    <t>malt_e</t>
-  </si>
-  <si>
-    <t>maltpt_e</t>
-  </si>
-  <si>
     <t>man_e</t>
   </si>
   <si>
@@ -2125,6 +1972,9 @@
     <t>mn2_e</t>
   </si>
   <si>
+    <t>mnl1p_e</t>
+  </si>
+  <si>
     <t>mnl_e</t>
   </si>
   <si>
@@ -2137,9 +1987,6 @@
     <t>nh4_e</t>
   </si>
   <si>
-    <t>nmn_e</t>
-  </si>
-  <si>
     <t>no2_e</t>
   </si>
   <si>
@@ -2161,24 +2008,15 @@
     <t>octa_e</t>
   </si>
   <si>
-    <t>orn_e</t>
-  </si>
-  <si>
     <t>oxa_e</t>
   </si>
   <si>
     <t>p_xyl_e</t>
   </si>
   <si>
-    <t>pacald_e</t>
-  </si>
-  <si>
     <t>pea_e</t>
   </si>
   <si>
-    <t>peamn_e</t>
-  </si>
-  <si>
     <t>phedca_e</t>
   </si>
   <si>
@@ -2260,9 +2098,6 @@
     <t>sel_e</t>
   </si>
   <si>
-    <t>ser__L_e</t>
-  </si>
-  <si>
     <t>serglugly_e</t>
   </si>
   <si>
@@ -2296,9 +2131,6 @@
     <t>tcynt_e</t>
   </si>
   <si>
-    <t>thm_e</t>
-  </si>
-  <si>
     <t>thym_e</t>
   </si>
   <si>
@@ -2339,9 +2171,6 @@
   </si>
   <si>
     <t>val__L_e</t>
-  </si>
-  <si>
-    <t>vanlt_e</t>
   </si>
   <si>
     <t>xan_e</t>
@@ -2753,7 +2582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J258"/>
+  <dimension ref="A1:J239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2796,16 +2625,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2816,10 +2648,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -2828,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2839,19 +2671,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2862,19 +2691,16 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2885,16 +2711,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2905,19 +2734,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2928,19 +2757,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2951,19 +2780,19 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D9" t="s">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2974,19 +2803,19 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2997,10 +2826,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -3009,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3020,10 +2849,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -3032,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3043,16 +2872,19 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D13" t="s">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3063,10 +2895,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D14" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -3075,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3086,10 +2918,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D15" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -3098,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3109,16 +2941,19 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D16" t="s">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3129,10 +2964,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D17" t="s">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -3141,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3152,10 +2987,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D18" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -3164,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3175,10 +3010,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="D19" t="s">
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -3187,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3198,10 +3033,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D20" t="s">
-        <v>541</v>
+        <v>503</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -3210,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3221,10 +3056,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D21" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3233,10 +3068,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="J21" t="s">
-        <v>780</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3247,10 +3082,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="D22" t="s">
-        <v>543</v>
+        <v>505</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3259,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3270,10 +3105,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D23" t="s">
-        <v>544</v>
+        <v>506</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3282,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3293,10 +3128,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D24" t="s">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -3305,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3316,19 +3151,19 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D25" t="s">
-        <v>546</v>
+        <v>508</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3339,19 +3174,19 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D26" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3362,10 +3197,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s">
-        <v>548</v>
+        <v>510</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -3374,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3385,10 +3220,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="D28" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -3397,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3408,10 +3243,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="D29" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -3420,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3431,10 +3266,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D30" t="s">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -3443,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3454,10 +3289,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="D31" t="s">
-        <v>552</v>
+        <v>514</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -3466,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3477,10 +3312,10 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D32" t="s">
-        <v>553</v>
+        <v>515</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -3489,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3500,10 +3335,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="D33" t="s">
-        <v>554</v>
+        <v>516</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -3512,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3523,10 +3358,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D34" t="s">
-        <v>555</v>
+        <v>517</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -3535,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3546,10 +3381,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="D35" t="s">
-        <v>556</v>
+        <v>518</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -3558,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3569,10 +3404,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D36" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -3581,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3592,10 +3427,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="D37" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -3604,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3615,10 +3450,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="D38" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -3627,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3638,10 +3473,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="D39" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -3650,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3661,10 +3496,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="D40" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -3673,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3684,10 +3519,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="D41" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -3696,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3707,19 +3542,19 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="D42" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3730,10 +3565,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="D43" t="s">
-        <v>564</v>
+        <v>526</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -3742,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3753,10 +3588,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D44" t="s">
-        <v>565</v>
+        <v>527</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -3765,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3776,19 +3611,19 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="D45" t="s">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3799,10 +3634,10 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D46" t="s">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -3811,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3822,16 +3657,19 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="D47" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3842,19 +3680,19 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D48" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3865,19 +3703,19 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="D49" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3888,19 +3726,19 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="D50" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3911,10 +3749,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D51" t="s">
-        <v>572</v>
+        <v>534</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -3923,7 +3761,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>315</v>
+        <v>296</v>
+      </c>
+      <c r="J51" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3934,10 +3775,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D52" t="s">
-        <v>573</v>
+        <v>535</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -3946,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3957,22 +3798,19 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D53" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>317</v>
-      </c>
-      <c r="J53" t="s">
-        <v>780</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3983,19 +3821,25 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D54" t="s">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>318</v>
+        <v>299</v>
+      </c>
+      <c r="H54" t="s">
+        <v>723</v>
+      </c>
+      <c r="I54" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4006,19 +3850,16 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D55" t="s">
-        <v>576</v>
+        <v>538</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4029,25 +3870,19 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D56" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>320</v>
-      </c>
-      <c r="H56" t="s">
-        <v>780</v>
-      </c>
-      <c r="I56" t="s">
-        <v>781</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4058,19 +3893,19 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="D57" t="s">
-        <v>578</v>
+        <v>540</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4081,10 +3916,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D58" t="s">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
@@ -4093,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4104,19 +3939,19 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="D59" t="s">
-        <v>580</v>
+        <v>542</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4127,16 +3962,19 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="D60" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4147,16 +3985,25 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="D61" t="s">
-        <v>582</v>
+        <v>544</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>306</v>
+      </c>
+      <c r="H61" t="s">
+        <v>723</v>
+      </c>
+      <c r="I61" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4167,10 +4014,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="D62" t="s">
-        <v>583</v>
+        <v>545</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -4179,7 +4026,13 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>326</v>
+        <v>307</v>
+      </c>
+      <c r="H62" t="s">
+        <v>723</v>
+      </c>
+      <c r="I62" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4190,10 +4043,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D63" t="s">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -4202,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4213,10 +4066,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="D64" t="s">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
@@ -4225,13 +4078,13 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="H64" t="s">
-        <v>780</v>
+        <v>723</v>
       </c>
       <c r="I64" t="s">
-        <v>782</v>
+        <v>727</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4242,25 +4095,19 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="D65" t="s">
-        <v>586</v>
+        <v>548</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>329</v>
-      </c>
-      <c r="H65" t="s">
-        <v>780</v>
-      </c>
-      <c r="I65" t="s">
-        <v>783</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4271,19 +4118,19 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="D66" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4294,10 +4141,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="D67" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
@@ -4306,13 +4153,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="H67" t="s">
-        <v>780</v>
+        <v>723</v>
       </c>
       <c r="I67" t="s">
-        <v>784</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4323,10 +4170,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="D68" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -4335,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4346,10 +4193,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="D69" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -4358,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4369,25 +4216,19 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="D70" t="s">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>334</v>
-      </c>
-      <c r="H70" t="s">
-        <v>780</v>
-      </c>
-      <c r="I70" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4398,10 +4239,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="D71" t="s">
-        <v>592</v>
+        <v>554</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
@@ -4410,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4421,16 +4262,19 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="D72" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4441,10 +4285,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D73" t="s">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
@@ -4453,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4464,19 +4308,19 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="D74" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4487,19 +4331,19 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="D75" t="s">
-        <v>596</v>
+        <v>558</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4510,19 +4354,19 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="D76" t="s">
-        <v>597</v>
+        <v>559</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4533,10 +4377,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="D77" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
@@ -4545,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4556,10 +4400,10 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="D78" t="s">
-        <v>599</v>
+        <v>561</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
@@ -4568,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4579,19 +4423,19 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="D79" t="s">
-        <v>600</v>
+        <v>562</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4602,10 +4446,10 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="D80" t="s">
-        <v>601</v>
+        <v>563</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -4614,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4625,10 +4469,10 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D81" t="s">
-        <v>602</v>
+        <v>564</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -4637,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4648,10 +4492,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D82" t="s">
-        <v>603</v>
+        <v>565</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
@@ -4660,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4671,19 +4515,19 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="D83" t="s">
-        <v>604</v>
+        <v>566</v>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4694,19 +4538,25 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D84" t="s">
-        <v>605</v>
+        <v>567</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>348</v>
+        <v>329</v>
+      </c>
+      <c r="H84" t="s">
+        <v>723</v>
+      </c>
+      <c r="I84" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4717,19 +4567,19 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="D85" t="s">
-        <v>606</v>
+        <v>568</v>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4740,10 +4590,10 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="D86" t="s">
-        <v>607</v>
+        <v>569</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -4752,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4763,19 +4613,19 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="D87" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4786,25 +4636,19 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="D88" t="s">
-        <v>609</v>
+        <v>571</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>352</v>
-      </c>
-      <c r="H88" t="s">
-        <v>780</v>
-      </c>
-      <c r="I88" t="s">
-        <v>785</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4815,19 +4659,19 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="D89" t="s">
-        <v>610</v>
+        <v>572</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4838,10 +4682,10 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="D90" t="s">
-        <v>611</v>
+        <v>573</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
@@ -4850,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4861,19 +4705,19 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="D91" t="s">
-        <v>612</v>
+        <v>574</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4884,19 +4728,16 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="D92" t="s">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
-      </c>
-      <c r="G92" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4907,16 +4748,19 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="D93" t="s">
-        <v>614</v>
+        <v>576</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4927,16 +4771,19 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="D94" t="s">
-        <v>615</v>
+        <v>577</v>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4947,10 +4794,10 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="D95" t="s">
-        <v>616</v>
+        <v>578</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -4959,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4970,19 +4817,19 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="D96" t="s">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4993,10 +4840,10 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="D97" t="s">
-        <v>618</v>
+        <v>580</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
@@ -5005,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5016,10 +4863,10 @@
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="D98" t="s">
-        <v>619</v>
+        <v>581</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
@@ -5028,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5039,19 +4886,19 @@
         <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D99" t="s">
-        <v>620</v>
+        <v>582</v>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5062,10 +4909,10 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="D100" t="s">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
@@ -5074,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5085,16 +4932,19 @@
         <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="D101" t="s">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5105,10 +4955,10 @@
         <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="D102" t="s">
-        <v>623</v>
+        <v>585</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
@@ -5117,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5128,10 +4978,10 @@
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="D103" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="E103" t="b">
         <v>1</v>
@@ -5140,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5151,16 +5001,19 @@
         <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="D104" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="E104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5171,19 +5024,19 @@
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D105" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="b">
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5194,19 +5047,19 @@
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="D106" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5217,19 +5070,19 @@
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="D107" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="b">
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5240,10 +5093,10 @@
         <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="D108" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="E108" t="b">
         <v>1</v>
@@ -5252,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5263,19 +5116,19 @@
         <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="D109" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="b">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5286,19 +5139,19 @@
         <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="D110" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="b">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5309,10 +5162,10 @@
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="D111" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
@@ -5321,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5332,10 +5185,10 @@
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="D112" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="E112" t="b">
         <v>1</v>
@@ -5344,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -5355,10 +5208,10 @@
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="D113" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="E113" t="b">
         <v>1</v>
@@ -5367,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -5378,10 +5231,10 @@
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D114" t="s">
-        <v>635</v>
+        <v>597</v>
       </c>
       <c r="E114" t="b">
         <v>1</v>
@@ -5390,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -5401,10 +5254,10 @@
         <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="D115" t="s">
-        <v>636</v>
+        <v>598</v>
       </c>
       <c r="E115" t="b">
         <v>1</v>
@@ -5413,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -5424,19 +5277,19 @@
         <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="D116" t="s">
-        <v>637</v>
+        <v>599</v>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="b">
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -5447,10 +5300,10 @@
         <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="D117" t="s">
-        <v>638</v>
+        <v>600</v>
       </c>
       <c r="E117" t="b">
         <v>1</v>
@@ -5459,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -5470,19 +5323,22 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="D118" t="s">
-        <v>639</v>
+        <v>601</v>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="b">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>382</v>
+        <v>363</v>
+      </c>
+      <c r="J118" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -5493,19 +5349,19 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="D119" t="s">
-        <v>640</v>
+        <v>602</v>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="b">
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -5516,10 +5372,10 @@
         <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="D120" t="s">
-        <v>641</v>
+        <v>603</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
@@ -5528,7 +5384,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -5539,10 +5395,10 @@
         <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="D121" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="E121" t="b">
         <v>1</v>
@@ -5551,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -5562,10 +5418,10 @@
         <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="D122" t="s">
-        <v>643</v>
+        <v>605</v>
       </c>
       <c r="E122" t="b">
         <v>1</v>
@@ -5574,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -5585,10 +5441,10 @@
         <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="D123" t="s">
-        <v>644</v>
+        <v>606</v>
       </c>
       <c r="E123" t="b">
         <v>1</v>
@@ -5597,7 +5453,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5608,10 +5464,10 @@
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="D124" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="E124" t="b">
         <v>1</v>
@@ -5620,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -5631,16 +5487,19 @@
         <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="D125" t="s">
-        <v>646</v>
+        <v>608</v>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="b">
         <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -5651,16 +5510,19 @@
         <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D126" t="s">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="b">
         <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5671,22 +5533,19 @@
         <v>134</v>
       </c>
       <c r="C127" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="D127" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="b">
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>391</v>
-      </c>
-      <c r="J127" t="s">
-        <v>780</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5697,19 +5556,19 @@
         <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D128" t="s">
-        <v>649</v>
+        <v>611</v>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="b">
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5720,10 +5579,10 @@
         <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="D129" t="s">
-        <v>650</v>
+        <v>612</v>
       </c>
       <c r="E129" t="b">
         <v>1</v>
@@ -5732,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5743,19 +5602,19 @@
         <v>137</v>
       </c>
       <c r="C130" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="D130" t="s">
-        <v>651</v>
+        <v>613</v>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5766,19 +5625,25 @@
         <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="D131" t="s">
-        <v>652</v>
+        <v>614</v>
       </c>
       <c r="E131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>395</v>
+        <v>376</v>
+      </c>
+      <c r="H131" t="s">
+        <v>723</v>
+      </c>
+      <c r="I131" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5789,19 +5654,25 @@
         <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="D132" t="s">
-        <v>653</v>
+        <v>615</v>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>396</v>
+        <v>377</v>
+      </c>
+      <c r="H132" t="s">
+        <v>723</v>
+      </c>
+      <c r="I132" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5812,19 +5683,19 @@
         <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="D133" t="s">
-        <v>654</v>
+        <v>616</v>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5835,19 +5706,25 @@
         <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="D134" t="s">
-        <v>655</v>
+        <v>617</v>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>398</v>
+        <v>379</v>
+      </c>
+      <c r="H134" t="s">
+        <v>723</v>
+      </c>
+      <c r="I134" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5858,19 +5735,19 @@
         <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="D135" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5881,19 +5758,19 @@
         <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="D136" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5904,10 +5781,10 @@
         <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="D137" t="s">
-        <v>658</v>
+        <v>620</v>
       </c>
       <c r="E137" t="b">
         <v>1</v>
@@ -5916,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5927,19 +5804,19 @@
         <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="D138" t="s">
-        <v>659</v>
+        <v>621</v>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5950,25 +5827,16 @@
         <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="D139" t="s">
-        <v>660</v>
+        <v>622</v>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="b">
-        <v>0</v>
-      </c>
-      <c r="G139" t="s">
-        <v>403</v>
-      </c>
-      <c r="H139" t="s">
-        <v>780</v>
-      </c>
-      <c r="I139" t="s">
-        <v>403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5979,25 +5847,19 @@
         <v>147</v>
       </c>
       <c r="C140" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D140" t="s">
-        <v>661</v>
+        <v>623</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>404</v>
-      </c>
-      <c r="H140" t="s">
-        <v>780</v>
-      </c>
-      <c r="I140" t="s">
-        <v>786</v>
+        <v>385</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -6008,19 +5870,19 @@
         <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D141" t="s">
-        <v>662</v>
+        <v>624</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6031,25 +5893,19 @@
         <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="D142" t="s">
-        <v>663</v>
+        <v>625</v>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>406</v>
-      </c>
-      <c r="H142" t="s">
-        <v>780</v>
-      </c>
-      <c r="I142" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -6060,10 +5916,10 @@
         <v>150</v>
       </c>
       <c r="C143" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="D143" t="s">
-        <v>664</v>
+        <v>626</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
@@ -6080,19 +5936,19 @@
         <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="D144" t="s">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -6103,19 +5959,19 @@
         <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="D145" t="s">
-        <v>666</v>
+        <v>628</v>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -6126,10 +5982,10 @@
         <v>153</v>
       </c>
       <c r="C146" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="D146" t="s">
-        <v>667</v>
+        <v>629</v>
       </c>
       <c r="E146" t="b">
         <v>1</v>
@@ -6138,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -6149,19 +6005,22 @@
         <v>154</v>
       </c>
       <c r="C147" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="D147" t="s">
-        <v>668</v>
+        <v>630</v>
       </c>
       <c r="E147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="b">
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>411</v>
+        <v>392</v>
+      </c>
+      <c r="J147" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -6172,10 +6031,10 @@
         <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="D148" t="s">
-        <v>669</v>
+        <v>631</v>
       </c>
       <c r="E148" t="b">
         <v>1</v>
@@ -6184,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -6195,16 +6054,19 @@
         <v>156</v>
       </c>
       <c r="C149" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="D149" t="s">
-        <v>670</v>
+        <v>632</v>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="b">
         <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -6215,19 +6077,25 @@
         <v>157</v>
       </c>
       <c r="C150" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="D150" t="s">
-        <v>671</v>
+        <v>633</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>414</v>
+        <v>395</v>
+      </c>
+      <c r="H150" t="s">
+        <v>723</v>
+      </c>
+      <c r="I150" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -6238,10 +6106,10 @@
         <v>158</v>
       </c>
       <c r="C151" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="D151" t="s">
-        <v>672</v>
+        <v>634</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
@@ -6250,7 +6118,10 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>415</v>
+        <v>396</v>
+      </c>
+      <c r="J151" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -6261,19 +6132,22 @@
         <v>159</v>
       </c>
       <c r="C152" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D152" t="s">
-        <v>673</v>
+        <v>635</v>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="b">
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>416</v>
+        <v>397</v>
+      </c>
+      <c r="J152" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -6284,16 +6158,19 @@
         <v>160</v>
       </c>
       <c r="C153" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="D153" t="s">
-        <v>674</v>
+        <v>636</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="b">
         <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -6304,16 +6181,19 @@
         <v>161</v>
       </c>
       <c r="C154" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="D154" t="s">
-        <v>675</v>
+        <v>637</v>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="b">
         <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -6324,10 +6204,10 @@
         <v>162</v>
       </c>
       <c r="C155" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="D155" t="s">
-        <v>676</v>
+        <v>638</v>
       </c>
       <c r="E155" t="b">
         <v>1</v>
@@ -6336,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -6347,19 +6227,19 @@
         <v>163</v>
       </c>
       <c r="C156" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="D156" t="s">
-        <v>677</v>
+        <v>639</v>
       </c>
       <c r="E156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="b">
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -6370,10 +6250,10 @@
         <v>164</v>
       </c>
       <c r="C157" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D157" t="s">
-        <v>678</v>
+        <v>640</v>
       </c>
       <c r="E157" t="b">
         <v>1</v>
@@ -6382,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -6393,22 +6273,19 @@
         <v>165</v>
       </c>
       <c r="C158" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="D158" t="s">
-        <v>679</v>
+        <v>641</v>
       </c>
       <c r="E158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="b">
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>422</v>
-      </c>
-      <c r="J158" t="s">
-        <v>780</v>
+        <v>403</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -6419,19 +6296,19 @@
         <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="D159" t="s">
-        <v>680</v>
+        <v>642</v>
       </c>
       <c r="E159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="b">
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -6442,22 +6319,22 @@
         <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="D160" t="s">
-        <v>681</v>
+        <v>643</v>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="b">
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6465,28 +6342,22 @@
         <v>168</v>
       </c>
       <c r="C161" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="D161" t="s">
-        <v>682</v>
+        <v>644</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>425</v>
-      </c>
-      <c r="H161" t="s">
-        <v>780</v>
-      </c>
-      <c r="I161" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6494,10 +6365,10 @@
         <v>169</v>
       </c>
       <c r="C162" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="D162" t="s">
-        <v>683</v>
+        <v>645</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
@@ -6506,13 +6377,10 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>426</v>
-      </c>
-      <c r="J162" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6520,10 +6388,10 @@
         <v>170</v>
       </c>
       <c r="C163" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="D163" t="s">
-        <v>684</v>
+        <v>646</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
@@ -6532,13 +6400,10 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>427</v>
-      </c>
-      <c r="J163" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6546,22 +6411,22 @@
         <v>171</v>
       </c>
       <c r="C164" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="D164" t="s">
-        <v>685</v>
+        <v>647</v>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="b">
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6569,10 +6434,10 @@
         <v>172</v>
       </c>
       <c r="C165" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="D165" t="s">
-        <v>686</v>
+        <v>648</v>
       </c>
       <c r="E165" t="b">
         <v>1</v>
@@ -6581,10 +6446,10 @@
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6592,10 +6457,10 @@
         <v>173</v>
       </c>
       <c r="C166" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="D166" t="s">
-        <v>687</v>
+        <v>649</v>
       </c>
       <c r="E166" t="b">
         <v>1</v>
@@ -6604,10 +6469,10 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6615,22 +6480,28 @@
         <v>174</v>
       </c>
       <c r="C167" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="D167" t="s">
-        <v>688</v>
+        <v>650</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
+        <v>412</v>
+      </c>
+      <c r="H167" t="s">
+        <v>723</v>
+      </c>
+      <c r="I167" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6638,22 +6509,25 @@
         <v>175</v>
       </c>
       <c r="C168" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D168" t="s">
-        <v>689</v>
+        <v>651</v>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
+        <v>413</v>
+      </c>
+      <c r="H168" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6661,22 +6535,19 @@
         <v>176</v>
       </c>
       <c r="C169" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D169" t="s">
-        <v>690</v>
+        <v>652</v>
       </c>
       <c r="E169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="b">
         <v>1</v>
       </c>
-      <c r="G169" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6684,10 +6555,10 @@
         <v>177</v>
       </c>
       <c r="C170" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="D170" t="s">
-        <v>691</v>
+        <v>653</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
@@ -6696,10 +6567,10 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6707,22 +6578,28 @@
         <v>178</v>
       </c>
       <c r="C171" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="D171" t="s">
-        <v>692</v>
+        <v>654</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
+        <v>416</v>
+      </c>
+      <c r="H171" t="s">
+        <v>723</v>
+      </c>
+      <c r="I171" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6730,10 +6607,10 @@
         <v>179</v>
       </c>
       <c r="C172" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="D172" t="s">
-        <v>693</v>
+        <v>655</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
@@ -6741,11 +6618,8 @@
       <c r="F172" t="b">
         <v>1</v>
       </c>
-      <c r="G172" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6753,19 +6627,28 @@
         <v>180</v>
       </c>
       <c r="C173" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="D173" t="s">
-        <v>694</v>
+        <v>656</v>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>418</v>
+      </c>
+      <c r="H173" t="s">
+        <v>723</v>
+      </c>
+      <c r="I173" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6773,22 +6656,22 @@
         <v>181</v>
       </c>
       <c r="C174" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="D174" t="s">
-        <v>695</v>
+        <v>657</v>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6796,22 +6679,22 @@
         <v>182</v>
       </c>
       <c r="C175" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="D175" t="s">
-        <v>696</v>
+        <v>658</v>
       </c>
       <c r="E175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6819,10 +6702,10 @@
         <v>183</v>
       </c>
       <c r="C176" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D176" t="s">
-        <v>697</v>
+        <v>659</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
@@ -6831,7 +6714,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6842,19 +6725,25 @@
         <v>184</v>
       </c>
       <c r="C177" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="D177" t="s">
-        <v>698</v>
+        <v>660</v>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>441</v>
+        <v>422</v>
+      </c>
+      <c r="H177" t="s">
+        <v>723</v>
+      </c>
+      <c r="I177" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6865,19 +6754,19 @@
         <v>185</v>
       </c>
       <c r="C178" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="D178" t="s">
-        <v>699</v>
+        <v>661</v>
       </c>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="b">
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6888,19 +6777,19 @@
         <v>186</v>
       </c>
       <c r="C179" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="D179" t="s">
-        <v>700</v>
+        <v>662</v>
       </c>
       <c r="E179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="b">
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6911,25 +6800,19 @@
         <v>187</v>
       </c>
       <c r="C180" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="D180" t="s">
-        <v>701</v>
+        <v>663</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>444</v>
-      </c>
-      <c r="H180" t="s">
-        <v>780</v>
-      </c>
-      <c r="I180" t="s">
-        <v>788</v>
+        <v>425</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6940,22 +6823,19 @@
         <v>188</v>
       </c>
       <c r="C181" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="D181" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>445</v>
-      </c>
-      <c r="H181" t="s">
-        <v>780</v>
+        <v>426</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6966,10 +6846,10 @@
         <v>189</v>
       </c>
       <c r="C182" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="D182" t="s">
-        <v>703</v>
+        <v>665</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
@@ -6978,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6989,25 +6869,19 @@
         <v>190</v>
       </c>
       <c r="C183" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="D183" t="s">
-        <v>704</v>
+        <v>666</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>447</v>
-      </c>
-      <c r="H183" t="s">
-        <v>780</v>
-      </c>
-      <c r="I183" t="s">
-        <v>789</v>
+        <v>428</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -7018,16 +6892,19 @@
         <v>191</v>
       </c>
       <c r="C184" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="D184" t="s">
-        <v>705</v>
+        <v>667</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="b">
         <v>1</v>
+      </c>
+      <c r="G184" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -7038,25 +6915,19 @@
         <v>192</v>
       </c>
       <c r="C185" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="D185" t="s">
-        <v>706</v>
+        <v>668</v>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>449</v>
-      </c>
-      <c r="H185" t="s">
-        <v>780</v>
-      </c>
-      <c r="I185" t="s">
-        <v>790</v>
+        <v>430</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -7067,16 +6938,19 @@
         <v>193</v>
       </c>
       <c r="C186" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="D186" t="s">
-        <v>707</v>
+        <v>669</v>
       </c>
       <c r="E186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="b">
         <v>1</v>
+      </c>
+      <c r="G186" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7087,19 +6961,19 @@
         <v>194</v>
       </c>
       <c r="C187" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="D187" t="s">
-        <v>708</v>
+        <v>670</v>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7110,19 +6984,19 @@
         <v>195</v>
       </c>
       <c r="C188" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="D188" t="s">
-        <v>709</v>
+        <v>671</v>
       </c>
       <c r="E188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7133,10 +7007,10 @@
         <v>196</v>
       </c>
       <c r="C189" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="D189" t="s">
-        <v>710</v>
+        <v>672</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
@@ -7145,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -7156,25 +7030,19 @@
         <v>197</v>
       </c>
       <c r="C190" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="D190" t="s">
-        <v>711</v>
+        <v>673</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>454</v>
-      </c>
-      <c r="H190" t="s">
-        <v>780</v>
-      </c>
-      <c r="I190" t="s">
-        <v>791</v>
+        <v>435</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7185,19 +7053,25 @@
         <v>198</v>
       </c>
       <c r="C191" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="D191" t="s">
-        <v>712</v>
+        <v>674</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>455</v>
+        <v>436</v>
+      </c>
+      <c r="H191" t="s">
+        <v>723</v>
+      </c>
+      <c r="I191" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7208,10 +7082,10 @@
         <v>199</v>
       </c>
       <c r="C192" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="D192" t="s">
-        <v>713</v>
+        <v>675</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
@@ -7220,10 +7094,10 @@
         <v>1</v>
       </c>
       <c r="G192" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -7231,10 +7105,10 @@
         <v>200</v>
       </c>
       <c r="C193" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="D193" t="s">
-        <v>714</v>
+        <v>676</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
@@ -7243,10 +7117,10 @@
         <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -7254,22 +7128,22 @@
         <v>201</v>
       </c>
       <c r="C194" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="D194" t="s">
-        <v>715</v>
+        <v>677</v>
       </c>
       <c r="E194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -7277,10 +7151,10 @@
         <v>202</v>
       </c>
       <c r="C195" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="D195" t="s">
-        <v>716</v>
+        <v>678</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
@@ -7289,10 +7163,10 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -7300,22 +7174,22 @@
         <v>203</v>
       </c>
       <c r="C196" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="D196" t="s">
-        <v>717</v>
+        <v>679</v>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="b">
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -7323,22 +7197,22 @@
         <v>204</v>
       </c>
       <c r="C197" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="D197" t="s">
-        <v>718</v>
+        <v>680</v>
       </c>
       <c r="E197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="b">
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -7346,10 +7220,10 @@
         <v>205</v>
       </c>
       <c r="C198" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="D198" t="s">
-        <v>719</v>
+        <v>681</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
@@ -7358,10 +7232,10 @@
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -7369,10 +7243,10 @@
         <v>206</v>
       </c>
       <c r="C199" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="D199" t="s">
-        <v>720</v>
+        <v>682</v>
       </c>
       <c r="E199" t="b">
         <v>1</v>
@@ -7380,8 +7254,11 @@
       <c r="F199" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="G199" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -7389,10 +7266,10 @@
         <v>207</v>
       </c>
       <c r="C200" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="D200" t="s">
-        <v>721</v>
+        <v>683</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
@@ -7401,10 +7278,10 @@
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -7412,22 +7289,22 @@
         <v>208</v>
       </c>
       <c r="C201" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="D201" t="s">
-        <v>722</v>
+        <v>684</v>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="b">
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -7435,22 +7312,25 @@
         <v>209</v>
       </c>
       <c r="C202" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="D202" t="s">
+        <v>685</v>
+      </c>
+      <c r="E202" t="b">
+        <v>0</v>
+      </c>
+      <c r="F202" t="b">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>447</v>
+      </c>
+      <c r="J202" t="s">
         <v>723</v>
       </c>
-      <c r="E202" t="b">
-        <v>0</v>
-      </c>
-      <c r="F202" t="b">
-        <v>1</v>
-      </c>
-      <c r="G202" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -7458,22 +7338,19 @@
         <v>210</v>
       </c>
       <c r="C203" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="D203" t="s">
-        <v>724</v>
+        <v>686</v>
       </c>
       <c r="E203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203" t="b">
         <v>1</v>
       </c>
-      <c r="G203" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -7481,10 +7358,10 @@
         <v>211</v>
       </c>
       <c r="C204" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="D204" t="s">
-        <v>725</v>
+        <v>687</v>
       </c>
       <c r="E204" t="b">
         <v>0</v>
@@ -7493,10 +7370,10 @@
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -7504,10 +7381,10 @@
         <v>212</v>
       </c>
       <c r="C205" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="D205" t="s">
-        <v>726</v>
+        <v>688</v>
       </c>
       <c r="E205" t="b">
         <v>0</v>
@@ -7516,10 +7393,10 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -7527,22 +7404,22 @@
         <v>213</v>
       </c>
       <c r="C206" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="D206" t="s">
-        <v>727</v>
+        <v>689</v>
       </c>
       <c r="E206" t="b">
         <v>0</v>
       </c>
       <c r="F206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -7550,28 +7427,19 @@
         <v>214</v>
       </c>
       <c r="C207" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="D207" t="s">
-        <v>728</v>
+        <v>690</v>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="b">
-        <v>0</v>
-      </c>
-      <c r="G207" t="s">
-        <v>471</v>
-      </c>
-      <c r="H207" t="s">
-        <v>780</v>
-      </c>
-      <c r="I207" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -7579,22 +7447,22 @@
         <v>215</v>
       </c>
       <c r="C208" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="D208" t="s">
-        <v>729</v>
+        <v>691</v>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="b">
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -7602,10 +7470,10 @@
         <v>216</v>
       </c>
       <c r="C209" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="D209" t="s">
-        <v>730</v>
+        <v>692</v>
       </c>
       <c r="E209" t="b">
         <v>0</v>
@@ -7614,10 +7482,10 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -7625,10 +7493,10 @@
         <v>217</v>
       </c>
       <c r="C210" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="D210" t="s">
-        <v>731</v>
+        <v>693</v>
       </c>
       <c r="E210" t="b">
         <v>0</v>
@@ -7637,10 +7505,16 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
+        <v>455</v>
+      </c>
+      <c r="H210" t="s">
+        <v>723</v>
+      </c>
+      <c r="I210" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -7648,22 +7522,22 @@
         <v>218</v>
       </c>
       <c r="C211" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="D211" t="s">
-        <v>732</v>
+        <v>694</v>
       </c>
       <c r="E211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" t="b">
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -7671,10 +7545,10 @@
         <v>219</v>
       </c>
       <c r="C212" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="D212" t="s">
-        <v>733</v>
+        <v>695</v>
       </c>
       <c r="E212" t="b">
         <v>1</v>
@@ -7683,10 +7557,10 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -7694,22 +7568,22 @@
         <v>220</v>
       </c>
       <c r="C213" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="D213" t="s">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="E213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -7717,22 +7591,22 @@
         <v>221</v>
       </c>
       <c r="C214" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="D214" t="s">
-        <v>735</v>
+        <v>697</v>
       </c>
       <c r="E214" t="b">
         <v>0</v>
       </c>
       <c r="F214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7740,22 +7614,28 @@
         <v>222</v>
       </c>
       <c r="C215" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="D215" t="s">
-        <v>736</v>
+        <v>698</v>
       </c>
       <c r="E215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
+        <v>460</v>
+      </c>
+      <c r="H215" t="s">
+        <v>723</v>
+      </c>
+      <c r="I215" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -7763,22 +7643,22 @@
         <v>223</v>
       </c>
       <c r="C216" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D216" t="s">
-        <v>737</v>
+        <v>699</v>
       </c>
       <c r="E216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" t="b">
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -7786,22 +7666,22 @@
         <v>224</v>
       </c>
       <c r="C217" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="D217" t="s">
-        <v>738</v>
+        <v>700</v>
       </c>
       <c r="E217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217" t="b">
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7809,25 +7689,22 @@
         <v>225</v>
       </c>
       <c r="C218" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="D218" t="s">
-        <v>739</v>
+        <v>701</v>
       </c>
       <c r="E218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" t="b">
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>482</v>
-      </c>
-      <c r="J218" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -7835,10 +7712,10 @@
         <v>226</v>
       </c>
       <c r="C219" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="D219" t="s">
-        <v>740</v>
+        <v>702</v>
       </c>
       <c r="E219" t="b">
         <v>0</v>
@@ -7846,8 +7723,11 @@
       <c r="F219" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="G219" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -7855,10 +7735,10 @@
         <v>227</v>
       </c>
       <c r="C220" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="D220" t="s">
-        <v>741</v>
+        <v>703</v>
       </c>
       <c r="E220" t="b">
         <v>0</v>
@@ -7867,10 +7747,10 @@
         <v>1</v>
       </c>
       <c r="G220" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7878,22 +7758,22 @@
         <v>228</v>
       </c>
       <c r="C221" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="D221" t="s">
-        <v>742</v>
+        <v>704</v>
       </c>
       <c r="E221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221" t="b">
         <v>1</v>
       </c>
       <c r="G221" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7901,22 +7781,22 @@
         <v>229</v>
       </c>
       <c r="C222" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="D222" t="s">
-        <v>743</v>
+        <v>705</v>
       </c>
       <c r="E222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7924,10 +7804,10 @@
         <v>230</v>
       </c>
       <c r="C223" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="D223" t="s">
-        <v>744</v>
+        <v>706</v>
       </c>
       <c r="E223" t="b">
         <v>1</v>
@@ -7935,8 +7815,11 @@
       <c r="F223" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="G223" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -7944,19 +7827,19 @@
         <v>231</v>
       </c>
       <c r="C224" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="D224" t="s">
-        <v>745</v>
+        <v>707</v>
       </c>
       <c r="E224" t="b">
         <v>1</v>
       </c>
       <c r="F224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7967,10 +7850,10 @@
         <v>232</v>
       </c>
       <c r="C225" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="D225" t="s">
-        <v>746</v>
+        <v>708</v>
       </c>
       <c r="E225" t="b">
         <v>0</v>
@@ -7979,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -7990,25 +7873,19 @@
         <v>233</v>
       </c>
       <c r="C226" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="D226" t="s">
-        <v>747</v>
+        <v>709</v>
       </c>
       <c r="E226" t="b">
         <v>0</v>
       </c>
       <c r="F226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>490</v>
-      </c>
-      <c r="H226" t="s">
-        <v>780</v>
-      </c>
-      <c r="I226" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -8019,19 +7896,19 @@
         <v>234</v>
       </c>
       <c r="C227" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="D227" t="s">
-        <v>748</v>
+        <v>710</v>
       </c>
       <c r="E227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -8042,19 +7919,19 @@
         <v>235</v>
       </c>
       <c r="C228" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="D228" t="s">
-        <v>749</v>
+        <v>711</v>
       </c>
       <c r="E228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228" t="b">
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -8065,19 +7942,19 @@
         <v>236</v>
       </c>
       <c r="C229" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="D229" t="s">
-        <v>750</v>
+        <v>712</v>
       </c>
       <c r="E229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229" t="b">
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -8088,19 +7965,19 @@
         <v>237</v>
       </c>
       <c r="C230" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="D230" t="s">
-        <v>751</v>
+        <v>713</v>
       </c>
       <c r="E230" t="b">
         <v>0</v>
       </c>
       <c r="F230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -8111,19 +7988,19 @@
         <v>238</v>
       </c>
       <c r="C231" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="D231" t="s">
-        <v>752</v>
+        <v>714</v>
       </c>
       <c r="E231" t="b">
         <v>0</v>
       </c>
       <c r="F231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -8134,25 +8011,19 @@
         <v>239</v>
       </c>
       <c r="C232" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="D232" t="s">
-        <v>753</v>
+        <v>715</v>
       </c>
       <c r="E232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>496</v>
-      </c>
-      <c r="H232" t="s">
-        <v>780</v>
-      </c>
-      <c r="I232" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -8163,10 +8034,10 @@
         <v>240</v>
       </c>
       <c r="C233" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="D233" t="s">
-        <v>754</v>
+        <v>716</v>
       </c>
       <c r="E233" t="b">
         <v>1</v>
@@ -8175,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -8186,19 +8057,19 @@
         <v>241</v>
       </c>
       <c r="C234" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="D234" t="s">
-        <v>755</v>
+        <v>717</v>
       </c>
       <c r="E234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234" t="b">
         <v>1</v>
       </c>
       <c r="G234" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -8209,10 +8080,10 @@
         <v>242</v>
       </c>
       <c r="C235" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="D235" t="s">
-        <v>756</v>
+        <v>718</v>
       </c>
       <c r="E235" t="b">
         <v>1</v>
@@ -8221,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -8232,19 +8103,19 @@
         <v>243</v>
       </c>
       <c r="C236" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="D236" t="s">
-        <v>757</v>
+        <v>719</v>
       </c>
       <c r="E236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236" t="b">
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -8255,19 +8126,19 @@
         <v>244</v>
       </c>
       <c r="C237" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="D237" t="s">
-        <v>758</v>
+        <v>720</v>
       </c>
       <c r="E237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237" t="b">
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -8278,19 +8149,19 @@
         <v>245</v>
       </c>
       <c r="C238" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="D238" t="s">
-        <v>759</v>
+        <v>721</v>
       </c>
       <c r="E238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238" t="b">
         <v>1</v>
       </c>
       <c r="G238" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -8301,456 +8172,25 @@
         <v>246</v>
       </c>
       <c r="C239" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="D239" t="s">
-        <v>760</v>
+        <v>722</v>
       </c>
       <c r="E239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" t="s">
-        <v>247</v>
-      </c>
-      <c r="C240" t="s">
-        <v>504</v>
-      </c>
-      <c r="D240" t="s">
-        <v>761</v>
-      </c>
-      <c r="E240" t="b">
-        <v>1</v>
-      </c>
-      <c r="F240" t="b">
-        <v>1</v>
-      </c>
-      <c r="G240" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" t="s">
-        <v>248</v>
-      </c>
-      <c r="C241" t="s">
-        <v>505</v>
-      </c>
-      <c r="D241" t="s">
-        <v>762</v>
-      </c>
-      <c r="E241" t="b">
-        <v>1</v>
-      </c>
-      <c r="F241" t="b">
-        <v>1</v>
-      </c>
-      <c r="G241" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" t="s">
-        <v>249</v>
-      </c>
-      <c r="C242" t="s">
-        <v>506</v>
-      </c>
-      <c r="D242" t="s">
-        <v>763</v>
-      </c>
-      <c r="E242" t="b">
-        <v>1</v>
-      </c>
-      <c r="F242" t="b">
-        <v>0</v>
-      </c>
-      <c r="G242" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" t="s">
-        <v>250</v>
-      </c>
-      <c r="C243" t="s">
-        <v>507</v>
-      </c>
-      <c r="D243" t="s">
-        <v>764</v>
-      </c>
-      <c r="E243" t="b">
-        <v>0</v>
-      </c>
-      <c r="F243" t="b">
-        <v>1</v>
-      </c>
-      <c r="G243" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" t="s">
-        <v>251</v>
-      </c>
-      <c r="C244" t="s">
-        <v>508</v>
-      </c>
-      <c r="D244" t="s">
-        <v>765</v>
-      </c>
-      <c r="E244" t="b">
-        <v>0</v>
-      </c>
-      <c r="F244" t="b">
-        <v>1</v>
-      </c>
-      <c r="G244" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245" t="s">
-        <v>252</v>
-      </c>
-      <c r="C245" t="s">
-        <v>509</v>
-      </c>
-      <c r="D245" t="s">
-        <v>766</v>
-      </c>
-      <c r="E245" t="b">
-        <v>0</v>
-      </c>
-      <c r="F245" t="b">
-        <v>0</v>
-      </c>
-      <c r="G245" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246" t="s">
-        <v>253</v>
-      </c>
-      <c r="C246" t="s">
-        <v>510</v>
-      </c>
-      <c r="D246" t="s">
-        <v>767</v>
-      </c>
-      <c r="E246" t="b">
-        <v>0</v>
-      </c>
-      <c r="F246" t="b">
-        <v>1</v>
-      </c>
-      <c r="G246" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" t="s">
-        <v>254</v>
-      </c>
-      <c r="C247" t="s">
-        <v>511</v>
-      </c>
-      <c r="D247" t="s">
-        <v>768</v>
-      </c>
-      <c r="E247" t="b">
-        <v>0</v>
-      </c>
-      <c r="F247" t="b">
-        <v>1</v>
-      </c>
-      <c r="G247" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" t="s">
-        <v>255</v>
-      </c>
-      <c r="C248" t="s">
-        <v>512</v>
-      </c>
-      <c r="D248" t="s">
-        <v>769</v>
-      </c>
-      <c r="E248" t="b">
-        <v>0</v>
-      </c>
-      <c r="F248" t="b">
-        <v>1</v>
-      </c>
-      <c r="G248" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249" t="s">
-        <v>256</v>
-      </c>
-      <c r="C249" t="s">
-        <v>513</v>
-      </c>
-      <c r="D249" t="s">
-        <v>770</v>
-      </c>
-      <c r="E249" t="b">
-        <v>0</v>
-      </c>
-      <c r="F249" t="b">
-        <v>1</v>
-      </c>
-      <c r="G249" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" t="s">
-        <v>257</v>
-      </c>
-      <c r="C250" t="s">
-        <v>514</v>
-      </c>
-      <c r="D250" t="s">
-        <v>771</v>
-      </c>
-      <c r="E250" t="b">
-        <v>1</v>
-      </c>
-      <c r="F250" t="b">
-        <v>1</v>
-      </c>
-      <c r="G250" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" t="s">
-        <v>258</v>
-      </c>
-      <c r="C251" t="s">
-        <v>515</v>
-      </c>
-      <c r="D251" t="s">
-        <v>772</v>
-      </c>
-      <c r="E251" t="b">
-        <v>1</v>
-      </c>
-      <c r="F251" t="b">
-        <v>1</v>
-      </c>
-      <c r="G251" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>259</v>
-      </c>
-      <c r="C252" t="s">
-        <v>516</v>
-      </c>
-      <c r="D252" t="s">
-        <v>773</v>
-      </c>
-      <c r="E252" t="b">
-        <v>1</v>
-      </c>
-      <c r="F252" t="b">
-        <v>1</v>
-      </c>
-      <c r="G252" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" t="s">
-        <v>260</v>
-      </c>
-      <c r="C253" t="s">
-        <v>517</v>
-      </c>
-      <c r="D253" t="s">
-        <v>774</v>
-      </c>
-      <c r="E253" t="b">
-        <v>1</v>
-      </c>
-      <c r="F253" t="b">
-        <v>1</v>
-      </c>
-      <c r="G253" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" t="s">
-        <v>261</v>
-      </c>
-      <c r="C254" t="s">
-        <v>518</v>
-      </c>
-      <c r="D254" t="s">
-        <v>775</v>
-      </c>
-      <c r="E254" t="b">
-        <v>0</v>
-      </c>
-      <c r="F254" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" t="s">
-        <v>262</v>
-      </c>
-      <c r="C255" t="s">
-        <v>519</v>
-      </c>
-      <c r="D255" t="s">
-        <v>776</v>
-      </c>
-      <c r="E255" t="b">
-        <v>1</v>
-      </c>
-      <c r="F255" t="b">
-        <v>1</v>
-      </c>
-      <c r="G255" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256" t="s">
-        <v>263</v>
-      </c>
-      <c r="C256" t="s">
-        <v>520</v>
-      </c>
-      <c r="D256" t="s">
-        <v>777</v>
-      </c>
-      <c r="E256" t="b">
-        <v>1</v>
-      </c>
-      <c r="F256" t="b">
-        <v>1</v>
-      </c>
-      <c r="G256" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257" t="s">
-        <v>264</v>
-      </c>
-      <c r="C257" t="s">
-        <v>521</v>
-      </c>
-      <c r="D257" t="s">
-        <v>778</v>
-      </c>
-      <c r="E257" t="b">
-        <v>0</v>
-      </c>
-      <c r="F257" t="b">
-        <v>1</v>
-      </c>
-      <c r="G257" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258" t="s">
-        <v>265</v>
-      </c>
-      <c r="C258" t="s">
-        <v>522</v>
-      </c>
-      <c r="D258" t="s">
-        <v>779</v>
-      </c>
-      <c r="E258" t="b">
-        <v>0</v>
-      </c>
-      <c r="F258" t="b">
-        <v>0</v>
-      </c>
-      <c r="G258" t="s">
-        <v>522</v>
-      </c>
-      <c r="H258" t="s">
-        <v>780</v>
-      </c>
-      <c r="I258" t="s">
-        <v>793</v>
+        <v>0</v>
+      </c>
+      <c r="G239" t="s">
+        <v>484</v>
+      </c>
+      <c r="H239" t="s">
+        <v>723</v>
+      </c>
+      <c r="I239" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>
